--- a/Test/Lawnmower/T2/Sensors_data_1000020.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000020.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9778413080423317</v>
+        <v>0.9839315240894924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001654736619357169</v>
+        <v>0.001061243921963842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002536450203155793</v>
+        <v>0.1562732315274697</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8655743136541156</v>
+        <v>0.9994293077349468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004605664255028403</v>
+        <v>4.157635512496786e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1422085399439417</v>
+        <v>0.001550691440578011</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2663947162243365</v>
+        <v>0.9492233637259549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03104718315751541</v>
+        <v>0.003791828489287935</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4630766991010582</v>
+        <v>0.05538735997198196</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.928975345471009</v>
+        <v>0.9900284987141444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003254720175712294</v>
+        <v>0.0003416414547668098</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005459303433642482</v>
+        <v>0.0008715260621893206</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5986191245258106</v>
+        <v>0.9923225784760237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01711545614207041</v>
+        <v>0.0003249190232185337</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01480250914559078</v>
+        <v>0.09384792827552446</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
